--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H2">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I2">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J2">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>352.8132054174563</v>
+        <v>456.1584871090478</v>
       </c>
       <c r="R2">
-        <v>352.8132054174563</v>
+        <v>4105.42638398143</v>
       </c>
       <c r="S2">
-        <v>0.2636063751118598</v>
+        <v>0.2790440810118752</v>
       </c>
       <c r="T2">
-        <v>0.2636063751118598</v>
+        <v>0.2790440810118753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H3">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I3">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J3">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>189.3897956223444</v>
+        <v>190.0703857477973</v>
       </c>
       <c r="R3">
-        <v>189.3897956223444</v>
+        <v>1710.633471730176</v>
       </c>
       <c r="S3">
-        <v>0.1415036533230399</v>
+        <v>0.1162710277620849</v>
       </c>
       <c r="T3">
-        <v>0.1415036533230399</v>
+        <v>0.1162710277620849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H4">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I4">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J4">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>15.3454085261996</v>
+        <v>15.82252175831089</v>
       </c>
       <c r="R4">
-        <v>15.3454085261996</v>
+        <v>142.402695824798</v>
       </c>
       <c r="S4">
-        <v>0.01146540847703191</v>
+        <v>0.009679050523251107</v>
       </c>
       <c r="T4">
-        <v>0.01146540847703191</v>
+        <v>0.009679050523251107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H5">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I5">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J5">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>15.18913246239238</v>
+        <v>14.827580217756</v>
       </c>
       <c r="R5">
-        <v>15.18913246239238</v>
+        <v>133.448221959804</v>
       </c>
       <c r="S5">
-        <v>0.01134864593508502</v>
+        <v>0.009070418752297542</v>
       </c>
       <c r="T5">
-        <v>0.01134864593508502</v>
+        <v>0.009070418752297544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.1102900908744</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H6">
-        <v>14.1102900908744</v>
+        <v>207.025498</v>
       </c>
       <c r="I6">
-        <v>0.08780240064285945</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J6">
-        <v>0.08780240064285945</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>72.39098628910213</v>
+        <v>18.33429311704555</v>
       </c>
       <c r="R6">
-        <v>72.39098628910213</v>
+        <v>165.00863805341</v>
       </c>
       <c r="S6">
-        <v>0.05408733344848431</v>
+        <v>0.01121556677871324</v>
       </c>
       <c r="T6">
-        <v>0.05408733344848431</v>
+        <v>0.01121556677871324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>38.85941310493433</v>
+        <v>97.13607484495833</v>
       </c>
       <c r="R7">
-        <v>38.85941310493433</v>
+        <v>874.2246736046251</v>
       </c>
       <c r="S7">
-        <v>0.02903402953822433</v>
+        <v>0.05942067834798925</v>
       </c>
       <c r="T7">
-        <v>0.02903402953822433</v>
+        <v>0.05942067834798925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>3.148604533966866</v>
+        <v>40.4742907072</v>
       </c>
       <c r="R8">
-        <v>3.148604533966866</v>
+        <v>364.2686163648</v>
       </c>
       <c r="S8">
-        <v>0.002352497625131993</v>
+        <v>0.02475918255204615</v>
       </c>
       <c r="T8">
-        <v>0.002352497625131993</v>
+        <v>0.02475918255204616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>3.116539468888029</v>
+        <v>3.369306285391667</v>
       </c>
       <c r="R9">
-        <v>3.116539468888029</v>
+        <v>30.323756568525</v>
       </c>
       <c r="S9">
-        <v>0.002328540031018823</v>
+        <v>0.002061092805733317</v>
       </c>
       <c r="T9">
-        <v>0.002328540031018823</v>
+        <v>0.002061092805733317</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.0915812216584</v>
+        <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>43.0915812216584</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.2681407862199315</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J10">
-        <v>0.2681407862199315</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>221.0756862759506</v>
+        <v>3.15743975505</v>
       </c>
       <c r="R10">
-        <v>221.0756862759506</v>
+        <v>28.41695779545</v>
       </c>
       <c r="S10">
-        <v>0.1651779451271261</v>
+        <v>0.001931488506071933</v>
       </c>
       <c r="T10">
-        <v>0.1651779451271261</v>
+        <v>0.001931488506071933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.0915812216584</v>
+        <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>43.0915812216584</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.2681407862199315</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J11">
-        <v>0.2681407862199315</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>118.6732197036983</v>
+        <v>3.904172165541666</v>
       </c>
       <c r="R11">
-        <v>118.6732197036983</v>
+        <v>35.137549489875</v>
       </c>
       <c r="S11">
-        <v>0.08866736502090528</v>
+        <v>0.002388284258285169</v>
       </c>
       <c r="T11">
-        <v>0.08866736502090528</v>
+        <v>0.002388284258285169</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H12">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>9.615560497800315</v>
+        <v>285.6511756477767</v>
       </c>
       <c r="R12">
-        <v>9.615560497800315</v>
+        <v>2570.86058082999</v>
       </c>
       <c r="S12">
-        <v>0.007184320225471128</v>
+        <v>0.1747402976184033</v>
       </c>
       <c r="T12">
-        <v>0.007184320225471128</v>
+        <v>0.1747402976184033</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H13">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220869978492051</v>
+        <v>2.754304</v>
       </c>
       <c r="N13">
-        <v>0.220869978492051</v>
+        <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q13">
-        <v>9.51763661761616</v>
+        <v>119.024046858752</v>
       </c>
       <c r="R13">
-        <v>9.51763661761616</v>
+        <v>1071.216421728768</v>
       </c>
       <c r="S13">
-        <v>0.007111155846428994</v>
+        <v>0.07281012348253217</v>
       </c>
       <c r="T13">
-        <v>0.007111155846428994</v>
+        <v>0.07281012348253219</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.6278027241374</v>
+        <v>43.213838</v>
       </c>
       <c r="H14">
-        <v>33.6278027241374</v>
+        <v>129.641514</v>
       </c>
       <c r="I14">
-        <v>0.2092516729640661</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J14">
-        <v>0.2092516729640661</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.13036839234934</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N14">
-        <v>5.13036839234934</v>
+        <v>0.687851</v>
       </c>
       <c r="O14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q14">
-        <v>172.5230162000736</v>
+        <v>9.908227227379333</v>
       </c>
       <c r="R14">
-        <v>172.5230162000736</v>
+        <v>89.17404504641399</v>
       </c>
       <c r="S14">
-        <v>0.1289015440055745</v>
+        <v>0.00606112182334548</v>
       </c>
       <c r="T14">
-        <v>0.1289015440055745</v>
+        <v>0.006061121823345479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.6278027241374</v>
+        <v>43.213838</v>
       </c>
       <c r="H15">
-        <v>33.6278027241374</v>
+        <v>129.641514</v>
       </c>
       <c r="I15">
-        <v>0.2092516729640661</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J15">
-        <v>0.2092516729640661</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.75397691008961</v>
+        <v>0.214866</v>
       </c>
       <c r="N15">
-        <v>2.75397691008961</v>
+        <v>0.644598</v>
       </c>
       <c r="O15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q15">
-        <v>92.6101922393229</v>
+        <v>9.285184515708</v>
       </c>
       <c r="R15">
-        <v>92.6101922393229</v>
+        <v>83.566660641372</v>
       </c>
       <c r="S15">
-        <v>0.06919422714275909</v>
+        <v>0.005679990295986848</v>
       </c>
       <c r="T15">
-        <v>0.06919422714275909</v>
+        <v>0.005679990295986847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.6278027241374</v>
+        <v>43.213838</v>
       </c>
       <c r="H16">
-        <v>33.6278027241374</v>
+        <v>129.641514</v>
       </c>
       <c r="I16">
-        <v>0.2092516729640661</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J16">
-        <v>0.2092516729640661</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.22314243815605</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N16">
-        <v>0.22314243815605</v>
+        <v>0.797045</v>
       </c>
       <c r="O16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q16">
-        <v>7.50378988969468</v>
+        <v>11.48112450290333</v>
       </c>
       <c r="R16">
-        <v>7.50378988969468</v>
+        <v>103.33012052613</v>
       </c>
       <c r="S16">
-        <v>0.005606498912315281</v>
+        <v>0.007023304238401045</v>
       </c>
       <c r="T16">
-        <v>0.005606498912315281</v>
+        <v>0.007023304238401046</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H17">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.220869978492051</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N17">
-        <v>0.220869978492051</v>
+        <v>19.830535</v>
       </c>
       <c r="O17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q17">
-        <v>7.427372064415162</v>
+        <v>226.0846288526189</v>
       </c>
       <c r="R17">
-        <v>7.427372064415162</v>
+        <v>2034.76165967357</v>
       </c>
       <c r="S17">
-        <v>0.00554940290341723</v>
+        <v>0.138301882507797</v>
       </c>
       <c r="T17">
-        <v>0.00554940290341723</v>
+        <v>0.1383018825077969</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.10582073260747</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H18">
-        <v>1.10582073260747</v>
+        <v>102.607502</v>
       </c>
       <c r="I18">
-        <v>0.006881057326126499</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J18">
-        <v>0.006881057326126499</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.13036839234934</v>
+        <v>2.754304</v>
       </c>
       <c r="N18">
-        <v>5.13036839234934</v>
+        <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q18">
-        <v>5.673267734173956</v>
+        <v>94.20408439620266</v>
       </c>
       <c r="R18">
-        <v>5.673267734173956</v>
+        <v>847.836759565824</v>
       </c>
       <c r="S18">
-        <v>0.004238813965807065</v>
+        <v>0.0576271030809943</v>
       </c>
       <c r="T18">
-        <v>0.004238813965807065</v>
+        <v>0.05762710308099431</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.10582073260747</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H19">
-        <v>1.10582073260747</v>
+        <v>102.607502</v>
       </c>
       <c r="I19">
-        <v>0.006881057326126499</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J19">
-        <v>0.006881057326126499</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.75397691008961</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N19">
-        <v>2.75397691008961</v>
+        <v>0.687851</v>
       </c>
       <c r="O19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q19">
-        <v>3.045404764299349</v>
+        <v>7.842074762022444</v>
       </c>
       <c r="R19">
-        <v>3.045404764299349</v>
+        <v>70.578672858202</v>
       </c>
       <c r="S19">
-        <v>0.002275391335524028</v>
+        <v>0.004797202303663045</v>
       </c>
       <c r="T19">
-        <v>0.002275391335524028</v>
+        <v>0.004797202303663044</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.10582073260747</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H20">
-        <v>1.10582073260747</v>
+        <v>102.607502</v>
       </c>
       <c r="I20">
-        <v>0.006881057326126499</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J20">
-        <v>0.006881057326126499</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.22314243815605</v>
+        <v>0.214866</v>
       </c>
       <c r="N20">
-        <v>0.22314243815605</v>
+        <v>0.644598</v>
       </c>
       <c r="O20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q20">
-        <v>0.2467555344375403</v>
+        <v>7.348954508244</v>
       </c>
       <c r="R20">
-        <v>0.2467555344375403</v>
+        <v>66.140590574196</v>
       </c>
       <c r="S20">
-        <v>0.0001843647884293487</v>
+        <v>0.004495547742951004</v>
       </c>
       <c r="T20">
-        <v>0.0001843647884293487</v>
+        <v>0.004495547742951004</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.10582073260747</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H21">
-        <v>1.10582073260747</v>
+        <v>102.607502</v>
       </c>
       <c r="I21">
-        <v>0.006881057326126499</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J21">
-        <v>0.006881057326126499</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.220869978492051</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N21">
-        <v>0.220869978492051</v>
+        <v>0.797045</v>
       </c>
       <c r="O21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q21">
-        <v>0.244242601427076</v>
+        <v>9.086977381287777</v>
       </c>
       <c r="R21">
-        <v>0.244242601427076</v>
+        <v>81.78279643159</v>
       </c>
       <c r="S21">
-        <v>0.0001824872363660589</v>
+        <v>0.00555874180618057</v>
       </c>
       <c r="T21">
-        <v>0.0001824872363660589</v>
+        <v>0.00555874180618057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.146216666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.43865</v>
+      </c>
+      <c r="I22">
+        <v>0.007063813801397381</v>
+      </c>
+      <c r="J22">
+        <v>0.007063813801397379</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>7.576696575305556</v>
+      </c>
+      <c r="R22">
+        <v>68.19026917775</v>
+      </c>
+      <c r="S22">
+        <v>0.004634863523774665</v>
+      </c>
+      <c r="T22">
+        <v>0.004634863523774665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.146216666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.43865</v>
+      </c>
+      <c r="I23">
+        <v>0.007063813801397381</v>
+      </c>
+      <c r="J23">
+        <v>0.007063813801397379</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>3.157029149866667</v>
+      </c>
+      <c r="R23">
+        <v>28.4132623488</v>
+      </c>
+      <c r="S23">
+        <v>0.001931237328138649</v>
+      </c>
+      <c r="T23">
+        <v>0.001931237328138649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.146216666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.43865</v>
+      </c>
+      <c r="I24">
+        <v>0.007063813801397381</v>
+      </c>
+      <c r="J24">
+        <v>0.007063813801397379</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>0.2628087601277778</v>
+      </c>
+      <c r="R24">
+        <v>2.36527884115</v>
+      </c>
+      <c r="S24">
+        <v>0.0001607669944200662</v>
+      </c>
+      <c r="T24">
+        <v>0.0001607669944200662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.146216666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.43865</v>
+      </c>
+      <c r="I25">
+        <v>0.007063813801397381</v>
+      </c>
+      <c r="J25">
+        <v>0.007063813801397379</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>0.2462829903</v>
+      </c>
+      <c r="R25">
+        <v>2.2165469127</v>
+      </c>
+      <c r="S25">
+        <v>0.0001506577486536849</v>
+      </c>
+      <c r="T25">
+        <v>0.0001506577486536849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.146216666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.43865</v>
+      </c>
+      <c r="I26">
+        <v>0.007063813801397381</v>
+      </c>
+      <c r="J26">
+        <v>0.007063813801397379</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>0.3045287543611111</v>
+      </c>
+      <c r="R26">
+        <v>2.74075878925</v>
+      </c>
+      <c r="S26">
+        <v>0.0001862882064103151</v>
+      </c>
+      <c r="T26">
+        <v>0.0001862882064103151</v>
       </c>
     </row>
   </sheetData>
